--- a/bom full.xlsx
+++ b/bom full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_vt\dev\audio\projects\x18 dsp amplifier board\uberamp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C20E26-4973-40F6-A038-CFEB24E161E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47202DC8-BA29-4BD7-BC6C-96910C53ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{44327B94-4A1F-4A58-99F0-271AC39E39C5}"/>
   </bookViews>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61026DCD-6CE5-42A5-A275-38AEA529D0CB}">
   <dimension ref="A3:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3632,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3642,11 +3642,11 @@
       </c>
       <c r="M66">
         <f>SUM(bom[[#This Row],[n-lite]:[+feedbass]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <f>bom[[#This Row],[n-lite]]*nlite+(bom[[#This Row],[n-lite]]+bom[[#This Row],[+amp]])*n2amp+(bom[[#This Row],[n-lite]]+bom[[#This Row],[+amp]]+bom[[#This Row],[+feedbass]])*nfull+bom[[#This Row],[n-dsp]]*n_dsp</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O66">
         <v>37</v>
